--- a/アカウント検索_結合テスト.xlsx
+++ b/アカウント検索_結合テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test-case/test-case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D943374E-6F8F-4721-BBA6-F56F3E3B6452}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BED637E1-7EFC-480E-B49E-453CB51198F0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Sheet1 (3)" sheetId="4" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="113">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1171,154 +1170,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.アカウント権限「管理者」の情報を入力し、ログインボタンを押す</t>
-    <rPh sb="7" eb="9">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>と赤字で表示</t>
-  </si>
-  <si>
-    <t>2.TOPページの「アカウント一覧」を押す</t>
-    <rPh sb="15" eb="17">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント権限の「管理者」でログインした際、「アカウント一覧」で「削除」できるか</t>
-    <rPh sb="5" eb="7">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント削除できる</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.アカウント一覧でアカウントの「削除」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.アカウント削除画面に遷移し、値を入れ直し、「確認する」をおす</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ナオ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5.アカウント削除確認画面に遷移し、「削除する」を押す。</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.アカウント更新完了画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.アカウント削除完了画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>アカウント検索</t>
@@ -1853,7 +1705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1876,109 +1728,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2000,30 +1756,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2031,7 +1763,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="22">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2131,320 +1863,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -2649,38 +2067,21 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I43" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{5EB4462F-DEC7-4264-A286-C24EE28C496E}" name="列3" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{D450AE4F-D06A-4E15-B932-E3F510817622}" name="確認内容" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{ED3BCA59-A0DE-4B1B-9832-51565EA42EDC}" name="操作手順" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{E2B4F0B1-694C-4FD2-90CD-F4C8B987F173}" name="期待値" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{0CFA7919-BC40-4225-B0B7-8F6B54757F97}" name="実施日" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{2AD024B2-1EAC-46F1-AC76-089882A5C549}" name="実施結果" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{3AD576AB-891C-4DCF-B54E-D3B412910254}" name="備考" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{5EB4462F-DEC7-4264-A286-C24EE28C496E}" name="列3" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{D450AE4F-D06A-4E15-B932-E3F510817622}" name="確認内容" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{ED3BCA59-A0DE-4B1B-9832-51565EA42EDC}" name="操作手順" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{E2B4F0B1-694C-4FD2-90CD-F4C8B987F173}" name="期待値" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{0CFA7919-BC40-4225-B0B7-8F6B54757F97}" name="実施日" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{2AD024B2-1EAC-46F1-AC76-089882A5C549}" name="実施結果" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{3AD576AB-891C-4DCF-B54E-D3B412910254}" name="備考" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A44:I52" headerRowCount="0" totalsRowShown="0" headerRowDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="30" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="28" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{DF451A8A-0967-4F94-818E-D3570FB2B59A}" name="列3" headerRowDxfId="26" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{AA73A768-6C08-4C8A-8A41-080408F0AB37}" name="確認内容" headerRowDxfId="24" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="22" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="20" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="18" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="16" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="14" dataDxfId="13"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A56:I59" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{21F6D0F2-89C0-4CF9-A296-67198B77C610}" name="項目番号" headerRowDxfId="11" dataDxfId="10"/>
@@ -2697,7 +2098,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D669CB1E-E865-4AB1-9272-00AB1FE1DA44}" name="テーブル37" displayName="テーブル37" ref="A8:I39" totalsRowShown="0" headerRowDxfId="1">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{59834207-48CE-4C48-8124-A0C1B0263288}" name="項目番号" dataDxfId="0"/>
@@ -3031,10 +2432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3051,18 +2452,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -3071,7 +2472,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="15"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -3080,7 +2481,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="15"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -3090,7 +2491,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3131,16 +2532,20 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3149,7 +2554,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3176,16 +2581,20 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3194,7 +2603,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3221,16 +2630,20 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3239,7 +2652,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3266,16 +2679,20 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="G17" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3284,7 +2701,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3311,16 +2728,20 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3329,7 +2750,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3356,16 +2777,20 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="G23" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3373,10 +2798,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
@@ -3403,16 +2828,20 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3421,7 +2850,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="4"/>
@@ -3440,22 +2869,28 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2">
+        <v>8</v>
+      </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="G29" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3464,7 +2899,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
@@ -3483,22 +2918,28 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2">
+        <v>9</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="G32" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3507,7 +2948,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
@@ -3526,22 +2967,28 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2">
+        <v>10</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="G35" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3550,7 +2997,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
@@ -3570,23 +3017,27 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="G38" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3595,7 +3046,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="4"/>
@@ -3615,23 +3066,27 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="G41" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3640,7 +3095,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
@@ -3658,136 +3113,14 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="11"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="11"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="11">
-        <v>10</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="11"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="11"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="11"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="12"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="11"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="12"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="13"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="14"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3814,7 +3147,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3825,7 +3158,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -3834,7 +3167,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="15"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -3843,7 +3176,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="15"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -4717,7 +4050,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4728,7 +4061,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -4737,7 +4070,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="15"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -4746,7 +4079,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="15"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
